--- a/biology/Botanique/Lannea_acida/Lannea_acida.xlsx
+++ b/biology/Botanique/Lannea_acida/Lannea_acida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lannea acida, dont le nom commun français est le lannéa acide ou raisinier (comme Lannea microcarpa), est un petit arbre de la famille des Anacardiacées, que l’on retrouve en zone soudanienne - au sud du Sahel, du Sénégal au Cameroun[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lannea acida, dont le nom commun français est le lannéa acide ou raisinier (comme Lannea microcarpa), est un petit arbre de la famille des Anacardiacées, que l’on retrouve en zone soudanienne - au sud du Sahel, du Sénégal au Cameroun.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-Lannea acida est un arbre de petite stature, dont la taille atteint 4-6 mètres[1].
+Lannea acida est un arbre de petite stature, dont la taille atteint 4-6 mètres.
 Bois et écorce
-l’écorce est noirâtre et fissurée, les rameaux poilus, parfois collants[1].
+l’écorce est noirâtre et fissurée, les rameaux poilus, parfois collants.
 Feuilles
-les feuilles, de couleur plus foncée que celles de l’espèce Lannea microcarpa, sont caduques et présentent un bord rouge[1].
+les feuilles, de couleur plus foncée que celles de l’espèce Lannea microcarpa, sont caduques et présentent un bord rouge.
 Fleurs et fruits
-les fleurs sont de couleur vert-jaune, disposées en épis. Les baies sont de couleur rouge et se présentent sous forme de grappes pendantes[1].</t>
+les fleurs sont de couleur vert-jaune, disposées en épis. Les baies sont de couleur rouge et se présentent sous forme de grappes pendantes.</t>
         </is>
       </c>
     </row>
@@ -548,16 +562,18 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages avérés en pharmacopée
-Lannea acida sert au traitement de la dysenterie[1].
+Lannea acida sert au traitement de la dysenterie.
 Usages alimentaires et culinaires
-les fruits, au goût acide à résineux, sont comestibles, et servent notamment à la fabrication de boissons alcoolisées[2].
+les fruits, au goût acide à résineux, sont comestibles, et servent notamment à la fabrication de boissons alcoolisées.
 Usages agricoles, pastoraux et vétérinaires
-les feuilles servent au fourrage pour les chèvres[1].
+les feuilles servent au fourrage pour les chèvres.
 Usages domestiques, artisanaux et industriels
-le macéré de l’écorce produit une teinture rouge[2]. Le bois, dur et à grain très fin, sert de combustible, ainsi qu'à la fabrication de divers ustensiles[1].</t>
+le macéré de l’écorce produit une teinture rouge. Le bois, dur et à grain très fin, sert de combustible, ainsi qu'à la fabrication de divers ustensiles.</t>
         </is>
       </c>
     </row>
